--- a/inst/doc/xlsx/LOBSTAHS_lipid_class_rt_windows.xlsx
+++ b/inst/doc/xlsx/LOBSTAHS_lipid_class_rt_windows.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrcollins/Code/LOBSTAHS/inst/doc/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="680" yWindow="0" windowWidth="21580" windowHeight="16240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="680" yWindow="460" windowWidth="21580" windowHeight="16240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>rt_win_max</t>
   </si>
@@ -173,6 +178,9 @@
   </si>
   <si>
     <t>Retention times specified in minutes</t>
+  </si>
+  <si>
+    <t>See Collins, J.R., B.R. Edwards, H.F. Fredricks, and B.A.S. Van Mooy, 2016, "LOBSTAHS: A Novel Lipidomics Strategy for Semi-Untargeted Discovery and Identification of Oxidative Stress Biomarkers"</t>
   </si>
 </sst>
 </file>
@@ -609,13 +617,13 @@
       <selection activeCell="D2" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -629,7 +637,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -643,7 +651,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -657,7 +665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
@@ -671,7 +679,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -679,12 +687,12 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
@@ -698,7 +706,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
@@ -712,7 +720,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
@@ -726,7 +734,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -740,7 +748,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>29</v>
       </c>
@@ -751,7 +759,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
@@ -759,7 +767,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -767,7 +775,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>32</v>
       </c>
@@ -775,12 +783,12 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>34</v>
       </c>
@@ -788,7 +796,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -799,7 +807,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>36</v>
       </c>
@@ -807,7 +815,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>37</v>
       </c>
@@ -815,12 +823,12 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>39</v>
       </c>
@@ -828,7 +836,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>40</v>
       </c>
@@ -836,7 +844,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>41</v>
       </c>
@@ -844,7 +852,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
@@ -852,12 +860,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>44</v>
       </c>
@@ -865,7 +873,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>45</v>
       </c>
@@ -873,7 +881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>46</v>
       </c>
@@ -881,7 +889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>47</v>
       </c>
@@ -889,7 +897,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -900,7 +908,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -913,168 +921,165 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:G17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:7">
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="5:7">
-      <c r="E2" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="5:7">
-      <c r="E3" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="5:7">
-      <c r="E4" s="2" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="5:7">
-      <c r="E5" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="5:7">
-      <c r="E6" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="5:7">
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="5:7">
-      <c r="E8" s="1" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="5:7">
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="5:7">
-      <c r="E10" s="1" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="5:7">
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="5:7">
-      <c r="E12" s="1" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="5:7">
-      <c r="E13" s="4" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="5:7">
-      <c r="E14" s="7">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
         <v>42151</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
-      <c r="E15" s="7">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
         <v>42178</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
-      <c r="E16" s="7">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
         <v>42283</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="5:7">
-      <c r="E17" s="8">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
         <v>42347</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/inst/doc/xlsx/LOBSTAHS_lipid_class_rt_windows.xlsx
+++ b/inst/doc/xlsx/LOBSTAHS_lipid_class_rt_windows.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="21580" windowHeight="16240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="35560" yWindow="460" windowWidth="21580" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,9 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="99">
   <si>
     <t>rt_win_max</t>
   </si>
@@ -171,16 +174,157 @@
     <t>Zeax</t>
   </si>
   <si>
-    <t>rt_alt_win_min</t>
-  </si>
-  <si>
     <t>HPLC-ESI-MS retention time windows by lipid class; specific to current instance of Hummel et al. 2011 chromatography on the Van Mooy Lab Orbitrap; data based on authentic standards and QCs</t>
   </si>
   <si>
     <t>Retention times specified in minutes</t>
   </si>
   <si>
-    <t>See Collins, J.R., B.R. Edwards, H.F. Fredricks, and B.A.S. Van Mooy, 2016, "LOBSTAHS: A Novel Lipidomics Strategy for Semi-Untargeted Discovery and Identification of Oxidative Stress Biomarkers"</t>
+    <t>See Collins, J. R., B. R. Edwards, H. F. Fredricks, and B. A. S. Van Mooy. 2016. LOBSTAHS: An adduct-based lipidomics strategy for discovery and identification of oxidative stress biomarkers. Analytical Chemistry 88: 7154-7162; doi:10.1021/acs.analchem.6b01260</t>
+  </si>
+  <si>
+    <t>Deleted column "rt_alt_win_min"</t>
+  </si>
+  <si>
+    <t>JEH</t>
+  </si>
+  <si>
+    <t>Retention time windows for BLL, PDPT, vGSL, sGSL, hGSL, hapGSL, and hapCER from Hunter J. E., M. J. Frada, H. F. Fredricks, A. Vardi, and B. A. S. Van Mooy. 2015. Targeted and untargeted lipidomics of Emiliania huxleyi viral infection and life cycle phases highlights molecular biomarkers of infection, susceptibility, and ploidy. Front. Mar. Sci. 2: 81; doi: 10.3389/fmars.2015.00081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added BLL, PDPT, vGSL, sGSL, hGSL, hapGSL, and hapCER (data from Hunter et al., 2015; see citation above) </t>
+  </si>
+  <si>
+    <t>Added SDGCC, fungal GSLs, ubiquinones and plastoquinones</t>
+  </si>
+  <si>
+    <t>Added scytonemin and reduced scytonemin; data from Jamey Fulton, James_Fulton@baylor.edu</t>
+  </si>
+  <si>
+    <t>Some modifications of class and column names to realign with changes to LOBSTAHS_basic_component_matrix</t>
+  </si>
+  <si>
+    <t>PDPT</t>
+  </si>
+  <si>
+    <t>BLL</t>
+  </si>
+  <si>
+    <t>vGSL</t>
+  </si>
+  <si>
+    <t>sGSL</t>
+  </si>
+  <si>
+    <t>hapGSL(t40:0)</t>
+  </si>
+  <si>
+    <t>hapGSL(t40:1)</t>
+  </si>
+  <si>
+    <t>hapCER(d18:1/22:0(OH))</t>
+  </si>
+  <si>
+    <t>hapCER(d18:1/22:1(OH))</t>
+  </si>
+  <si>
+    <t>PQ9</t>
+  </si>
+  <si>
+    <t>PQ9OH</t>
+  </si>
+  <si>
+    <t>PQ9OH2</t>
+  </si>
+  <si>
+    <t>UQ1:1</t>
+  </si>
+  <si>
+    <t>UQ2:2</t>
+  </si>
+  <si>
+    <t>UQ3:3</t>
+  </si>
+  <si>
+    <t>UQ4:4</t>
+  </si>
+  <si>
+    <t>UQ5:5</t>
+  </si>
+  <si>
+    <t>UQ6:6</t>
+  </si>
+  <si>
+    <t>UQ7:7</t>
+  </si>
+  <si>
+    <t>UQ8:8</t>
+  </si>
+  <si>
+    <t>UQ9:9</t>
+  </si>
+  <si>
+    <t>UQ10:10</t>
+  </si>
+  <si>
+    <t>UQ11:11</t>
+  </si>
+  <si>
+    <t>UQ12:12</t>
+  </si>
+  <si>
+    <t>UQ13:13</t>
+  </si>
+  <si>
+    <t>S_DGCC</t>
+  </si>
+  <si>
+    <t>fngGSL(20:1_OH)</t>
+  </si>
+  <si>
+    <t>fngGSL(20:0_OH)</t>
+  </si>
+  <si>
+    <t>fngGSL(19:1_OH)</t>
+  </si>
+  <si>
+    <t>fngGSL(19:0_OH)</t>
+  </si>
+  <si>
+    <t>fngGSL(18:1_OH)</t>
+  </si>
+  <si>
+    <t>fngGSL(17:1_OH)</t>
+  </si>
+  <si>
+    <t>fngGSL(17:0_OH)</t>
+  </si>
+  <si>
+    <t>fngGSL(16:1_OH)</t>
+  </si>
+  <si>
+    <t>fngGSL(16:0_OH)</t>
+  </si>
+  <si>
+    <t>fngGSL(15:1_OH)</t>
+  </si>
+  <si>
+    <t>fngGSL(15:0_OH)</t>
+  </si>
+  <si>
+    <t>fngGSL(14:1_OH)</t>
+  </si>
+  <si>
+    <t>fngGSL(14:0_OH)</t>
+  </si>
+  <si>
+    <t>fngGSL(18:0_OH)</t>
+  </si>
+  <si>
+    <t>Scytonemin</t>
+  </si>
+  <si>
+    <t>Red_scytonemin</t>
   </si>
 </sst>
 </file>
@@ -611,19 +755,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -633,11 +776,8 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -647,11 +787,8 @@
       <c r="C2">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -661,11 +798,8 @@
       <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
@@ -675,11 +809,8 @@
       <c r="C4">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -687,12 +818,12 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
@@ -702,11 +833,8 @@
       <c r="C7">
         <v>7.1</v>
       </c>
-      <c r="D7">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
@@ -716,11 +844,8 @@
       <c r="C8">
         <v>6.7</v>
       </c>
-      <c r="D8">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
@@ -730,11 +855,8 @@
       <c r="C9">
         <v>6.7</v>
       </c>
-      <c r="D9">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -744,11 +866,8 @@
       <c r="C10">
         <v>6.7</v>
       </c>
-      <c r="D10">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>29</v>
       </c>
@@ -759,7 +878,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
@@ -767,7 +886,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -775,7 +894,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>32</v>
       </c>
@@ -783,12 +902,12 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>34</v>
       </c>
@@ -917,6 +1036,457 @@
       </c>
       <c r="C31">
         <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32">
+        <v>20.7</v>
+      </c>
+      <c r="C32">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33">
+        <v>20.7</v>
+      </c>
+      <c r="C33">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34">
+        <v>20.7</v>
+      </c>
+      <c r="C34">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35">
+        <v>18.3</v>
+      </c>
+      <c r="C35">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36">
+        <v>17.2</v>
+      </c>
+      <c r="C36">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37">
+        <v>17.3</v>
+      </c>
+      <c r="C37">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38">
+        <v>17</v>
+      </c>
+      <c r="C38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39">
+        <v>19.3</v>
+      </c>
+      <c r="C39">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C40">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49">
+        <v>20</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50">
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54">
+        <v>20</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55">
+        <v>22.7</v>
+      </c>
+      <c r="C55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56">
+        <v>22.7</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57">
+        <v>22.7</v>
+      </c>
+      <c r="C57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58">
+        <v>22.7</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59">
+        <v>22.7</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60">
+        <v>22.7</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61">
+        <v>22.7</v>
+      </c>
+      <c r="C61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62">
+        <v>22.7</v>
+      </c>
+      <c r="C62">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63">
+        <v>22.7</v>
+      </c>
+      <c r="C63">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64">
+        <v>22.7</v>
+      </c>
+      <c r="C64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65">
+        <v>22.7</v>
+      </c>
+      <c r="C65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66">
+        <v>22.7</v>
+      </c>
+      <c r="C66">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67">
+        <v>22.7</v>
+      </c>
+      <c r="C67">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68">
+        <v>22.7</v>
+      </c>
+      <c r="C68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69">
+        <v>22.7</v>
+      </c>
+      <c r="C69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70">
+        <v>22.7</v>
+      </c>
+      <c r="C70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71">
+        <v>6.2</v>
+      </c>
+      <c r="C71">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -926,28 +1496,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -982,75 +1552,71 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>42151</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
-        <v>42178</v>
+        <v>42151</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -1058,23 +1624,89 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
-        <v>42283</v>
+        <v>42178</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
+        <v>42283</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
         <v>42347</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>42683</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>42709</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>42719</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>42758</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <v>42758</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
     </row>
